--- a/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-le.xlsx
+++ b/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-le.xlsx
@@ -197,7 +197,7 @@
     <t>https://openminds.ebrains.eu/instances/productAccessibility/paidAccess</t>
   </si>
   <si>
-    <t>https://openminds.ebrans.eu/instances/ISBN/0-12-547612-4</t>
+    <t>https://openminds.ebrains.eu/instances/ISBN/0-12-547612-4</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F1139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-le.xlsx
+++ b/PaxinosWatson-RBSC/6th-edition/Pax_v6_CCSV_v2004_cor-Br-le.xlsx
@@ -179,9 +179,6 @@
     <t>Paxinos, G. and Watson, C. (2004) The Rat Brain in Stereotaxic Coordinates. 5th Edition, Academic Press, San Diego.</t>
   </si>
   <si>
-    <t>v2004 (Bregma, left)</t>
-  </si>
-  <si>
     <t>PW-RBSC-corT</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>https://openminds.ebrains.eu/instances/ISBN/0-12-547612-4</t>
+  </si>
+  <si>
+    <t>v2004 (Bregma, LIA)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F1139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
